--- a/Data/DataSet.xlsx
+++ b/Data/DataSet.xlsx
@@ -7,19 +7,14 @@
     <workbookView xWindow="80" yWindow="80" windowWidth="19140" windowHeight="7340"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="DataSets" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
-  <si>
-    <t>https://data.sfgov.org/Public-Safety/SFPD-Incidents-from-1-January-2003/tmnf-yvry</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
   <si>
     <t>San Francisco</t>
   </si>
@@ -27,15 +22,9 @@
     <t xml:space="preserve">Date Range </t>
   </si>
   <si>
-    <t>1/1/2014 -  12/31/2015</t>
-  </si>
-  <si>
     <t>New York City</t>
   </si>
   <si>
-    <t>https://data.cityofnewyork.us/Public-Safety/NYPD-7-Major-Felony-Incidents/hyij-8hr7</t>
-  </si>
-  <si>
     <t>Columns to Pick</t>
   </si>
   <si>
@@ -93,9 +82,6 @@
     <t>Sample Values</t>
   </si>
   <si>
-    <t>Manhattan, Bronx, Brooklyn, Queens, Staten Island</t>
-  </si>
-  <si>
     <t>Southern, Ingleside, Park, Bayview, Central, Misison, Tenderloin</t>
   </si>
   <si>
@@ -121,6 +107,64 @@
   </si>
   <si>
     <t>City/ Data URL/ Date Range</t>
+  </si>
+  <si>
+    <t>SFO</t>
+  </si>
+  <si>
+    <t>https://data.sfgov.org/Public-Safety/sfo_dec2015/ny79-e35s</t>
+  </si>
+  <si>
+    <t>NYC</t>
+  </si>
+  <si>
+    <t>https://data.cityofnewyork.us/Public-Safety/nyc_dec2015/6prp-c339</t>
+  </si>
+  <si>
+    <t>CHICAGO</t>
+  </si>
+  <si>
+    <t>https://data.cityofchicago.org/Public-Safety/chicago_dec2015/j39c-fyjj</t>
+  </si>
+  <si>
+    <t>12/1/2015 -  12/31/2015</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base DataSet URL : </t>
+  </si>
+  <si>
+    <t>http://us-city.census.okfn.org/dataset/crime-stats</t>
+  </si>
+  <si>
+    <t>Database Column</t>
+  </si>
+  <si>
+    <t>DayOfWeek</t>
+  </si>
+  <si>
+    <t>Regex on date toe xtract just date part</t>
+  </si>
+  <si>
+    <t>Time derived from DateTime Regex</t>
+  </si>
+  <si>
+    <t>OffenseDate</t>
+  </si>
+  <si>
+    <t>OffenseTime</t>
+  </si>
+  <si>
+    <t>OffenseHour</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manhattan, Bronx, Brooklyn, Queens, Staten Island
+If common DB table for SFO, NYC and anytoher city </t>
   </si>
 </sst>
 </file>
@@ -181,11 +225,26 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -481,246 +540,323 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="72.54296875" customWidth="1"/>
     <col min="2" max="2" width="22.81640625" customWidth="1"/>
-    <col min="3" max="3" width="24.6328125" customWidth="1"/>
-    <col min="4" max="4" width="30.54296875" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" customWidth="1"/>
+    <col min="5" max="5" width="30.54296875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="43.5">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="58">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="E10" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="29">
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="E21" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="29">
+      <c r="C22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="27" spans="1:7" ht="29">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="29" spans="1:7">
+      <c r="B29" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="29">
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="B12" t="s">
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="72.5">
+      <c r="B38" t="s">
         <v>18</v>
       </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="C19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="B29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="B31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" t="s">
-        <v>25</v>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A24" r:id="rId1"/>
-    <hyperlink ref="A5" r:id="rId2"/>
+    <hyperlink ref="A9" r:id="rId1"/>
+    <hyperlink ref="A28" r:id="rId2"/>
+    <hyperlink ref="A46" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Data/DataSet.xlsx
+++ b/Data/DataSet.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="80" windowWidth="19140" windowHeight="7340"/>
+    <workbookView xWindow="80" yWindow="80" windowWidth="19140" windowHeight="7340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DataSets" sheetId="1" r:id="rId1"/>
+    <sheet name="Crime Categories" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="126">
   <si>
     <t>San Francisco</t>
   </si>
@@ -165,13 +166,241 @@
   <si>
     <t xml:space="preserve">Manhattan, Bronx, Brooklyn, Queens, Staten Island
 If common DB table for SFO, NYC and anytoher city </t>
+  </si>
+  <si>
+    <t>1                  CRIMINAL TRESPASS</t>
+  </si>
+  <si>
+    <t>2                            ROBBERY</t>
+  </si>
+  <si>
+    <t>3                            ASSAULT</t>
+  </si>
+  <si>
+    <t>4                            BATTERY</t>
+  </si>
+  <si>
+    <t>5                    CRIMINAL DAMAGE</t>
+  </si>
+  <si>
+    <t>6                           BURGLARY</t>
+  </si>
+  <si>
+    <t>7                      OTHER OFFENSE</t>
+  </si>
+  <si>
+    <t>8                              THEFT</t>
+  </si>
+  <si>
+    <t>9                MOTOR VEHICLE THEFT</t>
+  </si>
+  <si>
+    <t>10                DECEPTIVE PRACTICE</t>
+  </si>
+  <si>
+    <t>11  INTERFERENCE WITH PUBLIC OFFICER</t>
+  </si>
+  <si>
+    <t>12               CRIM SEXUAL ASSAULT</t>
+  </si>
+  <si>
+    <t>13                 WEAPONS VIOLATION</t>
+  </si>
+  <si>
+    <t>14                         NARCOTICS</t>
+  </si>
+  <si>
+    <t>15            PUBLIC PEACE VIOLATION</t>
+  </si>
+  <si>
+    <t>16        OFFENSE INVOLVING CHILDREN</t>
+  </si>
+  <si>
+    <t>17                       SEX OFFENSE</t>
+  </si>
+  <si>
+    <t>18                             ARSON</t>
+  </si>
+  <si>
+    <t>19                      PROSTITUTION</t>
+  </si>
+  <si>
+    <t>20                        KIDNAPPING</t>
+  </si>
+  <si>
+    <t>21                          STALKING</t>
+  </si>
+  <si>
+    <t>22                          GAMBLING</t>
+  </si>
+  <si>
+    <t>23 CONCEALED CARRY LICENSE VIOLATION</t>
+  </si>
+  <si>
+    <t>24                  PUBLIC INDECENCY</t>
+  </si>
+  <si>
+    <t>25                      INTIMIDATION</t>
+  </si>
+  <si>
+    <t>26              LIQUOR LAW VIOLATION</t>
+  </si>
+  <si>
+    <t>27                    NON - CRIMINAL</t>
+  </si>
+  <si>
+    <t>28                         OBSCENITY</t>
+  </si>
+  <si>
+    <t>29                      NON-CRIMINAL</t>
+  </si>
+  <si>
+    <t>30                          HOMICIDE</t>
+  </si>
+  <si>
+    <t>1                DRUG/NARCOTIC</t>
+  </si>
+  <si>
+    <t>2                      ROBBERY</t>
+  </si>
+  <si>
+    <t>3                VEHICLE THEFT</t>
+  </si>
+  <si>
+    <t>4               OTHER OFFENSES</t>
+  </si>
+  <si>
+    <t>5                 NON-CRIMINAL</t>
+  </si>
+  <si>
+    <t>6                LARCENY/THEFT</t>
+  </si>
+  <si>
+    <t>7                     WARRANTS</t>
+  </si>
+  <si>
+    <t>8                      ASSAULT</t>
+  </si>
+  <si>
+    <t>9                  DRUNKENNESS</t>
+  </si>
+  <si>
+    <t>10                   VANDALISM</t>
+  </si>
+  <si>
+    <t>11             SECONDARY CODES</t>
+  </si>
+  <si>
+    <t>12                       FRAUD</t>
+  </si>
+  <si>
+    <t>13                 WEAPON LAWS</t>
+  </si>
+  <si>
+    <t>14                 LIQUOR LAWS</t>
+  </si>
+  <si>
+    <t>15              SUSPICIOUS OCC</t>
+  </si>
+  <si>
+    <t>16                    BURGLARY</t>
+  </si>
+  <si>
+    <t>17                    TRESPASS</t>
+  </si>
+  <si>
+    <t>18      SEX OFFENSES, FORCIBLE</t>
+  </si>
+  <si>
+    <t>19                       ARSON</t>
+  </si>
+  <si>
+    <t>20              MISSING PERSON</t>
+  </si>
+  <si>
+    <t>21      FORGERY/COUNTERFEITING</t>
+  </si>
+  <si>
+    <t>22          DISORDERLY CONDUCT</t>
+  </si>
+  <si>
+    <t>23             STOLEN PROPERTY</t>
+  </si>
+  <si>
+    <t>24                PROSTITUTION</t>
+  </si>
+  <si>
+    <t>25                  KIDNAPPING</t>
+  </si>
+  <si>
+    <t>26                     RUNAWAY</t>
+  </si>
+  <si>
+    <t>27 DRIVING UNDER THE INFLUENCE</t>
+  </si>
+  <si>
+    <t>28                     SUICIDE</t>
+  </si>
+  <si>
+    <t>29                     BRIBERY</t>
+  </si>
+  <si>
+    <t>30             FAMILY OFFENSES</t>
+  </si>
+  <si>
+    <t>31                EMBEZZLEMENT</t>
+  </si>
+  <si>
+    <t>32                   EXTORTION</t>
+  </si>
+  <si>
+    <t>33                    GAMBLING</t>
+  </si>
+  <si>
+    <t>34                  BAD CHECKS</t>
+  </si>
+  <si>
+    <t>35           RECOVERED VEHICLE</t>
+  </si>
+  <si>
+    <t>36  SEX OFFENSES, NON FORCIBLE</t>
+  </si>
+  <si>
+    <t>1                  GRAND LARCENY</t>
+  </si>
+  <si>
+    <t>2                 FELONY ASSAULT</t>
+  </si>
+  <si>
+    <t>3                        ROBBERY</t>
+  </si>
+  <si>
+    <t>4 GRAND LARCENY OF MOTOR VEHICLE</t>
+  </si>
+  <si>
+    <t>5                       BURGLARY</t>
+  </si>
+  <si>
+    <t>6                           RAPE</t>
+  </si>
+  <si>
+    <t>7 MURDER &amp; NON-NEGL. MANSLAUGHTE</t>
+  </si>
+  <si>
+    <t>NYC Category</t>
+  </si>
+  <si>
+    <t>SFO Category</t>
+  </si>
+  <si>
+    <t>Chicago Category</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +422,19 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -225,7 +467,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -245,6 +487,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -542,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -859,4 +1106,637 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:E84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="45.453125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="31.90625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>